--- a/data/trans_orig/P21D2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>124676</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>106424</v>
+        <v>108034</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>141419</v>
+        <v>145546</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4327169243376959</v>
+        <v>0.432716924337696</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3693701308186993</v>
+        <v>0.3749564860228479</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.490829675135401</v>
+        <v>0.5051536407421767</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>233</v>
@@ -762,19 +762,19 @@
         <v>141393</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>125795</v>
+        <v>125283</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>155999</v>
+        <v>157015</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4370616674003058</v>
+        <v>0.4370616674003057</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3888460287116125</v>
+        <v>0.3872640402388672</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.482207997778095</v>
+        <v>0.4853490666950086</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>376</v>
@@ -783,19 +783,19 @@
         <v>266069</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>243161</v>
+        <v>241023</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>288189</v>
+        <v>291326</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4350149792209468</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3975603779042909</v>
+        <v>0.3940653941221278</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4711808740687111</v>
+        <v>0.4763100664605469</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>152948</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>134421</v>
+        <v>133162</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>170892</v>
+        <v>170793</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5308444458497592</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4665387989368515</v>
+        <v>0.4621701114303228</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5931215053641662</v>
+        <v>0.5927794389922107</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>265</v>
@@ -833,19 +833,19 @@
         <v>171488</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>156540</v>
+        <v>154669</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>186753</v>
+        <v>187181</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5300870728070642</v>
+        <v>0.5300870728070641</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4838823092765536</v>
+        <v>0.4780970190476694</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5772724879532806</v>
+        <v>0.5785971328128996</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>403</v>
@@ -854,19 +854,19 @@
         <v>324436</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>302145</v>
+        <v>298772</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>348972</v>
+        <v>348969</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5304438502807861</v>
+        <v>0.530443850280786</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4939986877670147</v>
+        <v>0.4884830497489924</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5705593766500083</v>
+        <v>0.5705538409129023</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4282</v>
+        <v>4074</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004442256417057079</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01486057529015473</v>
+        <v>0.01413959902069445</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -904,19 +904,19 @@
         <v>1987</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>435</v>
+        <v>614</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4569</v>
+        <v>4956</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.006143071040663083</v>
+        <v>0.006143071040663082</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001343659407420282</v>
+        <v>0.001896983393094609</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01412450651481758</v>
+        <v>0.01531886442393746</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -925,19 +925,19 @@
         <v>3267</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1335</v>
+        <v>1141</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6918</v>
+        <v>6939</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005341864355882921</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002182193354265201</v>
+        <v>0.001864732758348258</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01131130579344454</v>
+        <v>0.01134444875813455</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>9219</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4943</v>
+        <v>4037</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17220</v>
+        <v>15797</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03199637339548784</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01715754141106295</v>
+        <v>0.01401086087964367</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05976787438466943</v>
+        <v>0.05482820291164248</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -978,16 +978,16 @@
         <v>4676</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14365</v>
+        <v>14621</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02670818875196708</v>
+        <v>0.02670818875196707</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01445501620120994</v>
+        <v>0.01445511878694161</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04440217860898084</v>
+        <v>0.04519538213399126</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -996,19 +996,19 @@
         <v>17859</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11910</v>
+        <v>11361</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26672</v>
+        <v>26422</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02919930614238417</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01947275365957232</v>
+        <v>0.01857422712538031</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04360871551889227</v>
+        <v>0.04319842365994146</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>255686</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>231230</v>
+        <v>230810</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>279629</v>
+        <v>280149</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5437724660812636</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4917619259584232</v>
+        <v>0.4908673918230359</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5946930088796275</v>
+        <v>0.5957990190615852</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>319</v>
@@ -1121,19 +1121,19 @@
         <v>222736</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>202214</v>
+        <v>203444</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>242955</v>
+        <v>241860</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.4424677236842253</v>
+        <v>0.4424677236842252</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4017012482020472</v>
+        <v>0.4041444682997121</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4826344235518991</v>
+        <v>0.4804580587856551</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>555</v>
@@ -1142,19 +1142,19 @@
         <v>478421</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>448336</v>
+        <v>447580</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>511659</v>
+        <v>511132</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4913935851684557</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4604921021691281</v>
+        <v>0.4597164133456605</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5255321385694387</v>
+        <v>0.5249909982608666</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>203247</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>179640</v>
+        <v>177904</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>228289</v>
+        <v>228141</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4322486310725648</v>
+        <v>0.4322486310725647</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3820437421889691</v>
+        <v>0.3783510933916139</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4855056236666598</v>
+        <v>0.4851907803118776</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>365</v>
@@ -1192,19 +1192,19 @@
         <v>264652</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>244570</v>
+        <v>246227</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>284629</v>
+        <v>284080</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5257348430261588</v>
+        <v>0.5257348430261586</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4858423678641587</v>
+        <v>0.4891344998703901</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5654199634724549</v>
+        <v>0.5643300216262269</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>546</v>
@@ -1213,19 +1213,19 @@
         <v>467898</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>434826</v>
+        <v>435414</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>496596</v>
+        <v>499117</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.480584997633919</v>
+        <v>0.4805849976339189</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4466166095816496</v>
+        <v>0.4472203056720077</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5100615695016905</v>
+        <v>0.5126507880963136</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>6350</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1467</v>
+        <v>1446</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19377</v>
+        <v>17001</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01350390118491777</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003120459032030434</v>
+        <v>0.003075872584564463</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0412099927076357</v>
+        <v>0.0361573152321424</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1263,19 +1263,19 @@
         <v>5533</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2367</v>
+        <v>2317</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12804</v>
+        <v>12801</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01099050439554617</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004701993643730684</v>
+        <v>0.004603455854457863</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02543451835003616</v>
+        <v>0.02543018473681522</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1284,19 +1284,19 @@
         <v>11882</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5710</v>
+        <v>5780</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>23573</v>
+        <v>23618</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0122043676388853</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005864651846966612</v>
+        <v>0.005936280796272266</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02421176429845748</v>
+        <v>0.02425879378594521</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>4925</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1351</v>
+        <v>1759</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11458</v>
+        <v>12269</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01047500166125385</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002872690224016063</v>
+        <v>0.003741819656248607</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02436751073534438</v>
+        <v>0.02609238595178271</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -1334,19 +1334,19 @@
         <v>10474</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5829</v>
+        <v>5871</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20195</v>
+        <v>19487</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02080692889406983</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01157877549409178</v>
+        <v>0.01166215522518963</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04011784837463022</v>
+        <v>0.03871144269037478</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -1355,19 +1355,19 @@
         <v>15399</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>9058</v>
+        <v>9486</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24106</v>
+        <v>26465</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0158170495587399</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00930374731894924</v>
+        <v>0.009743450237694221</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02475931946581236</v>
+        <v>0.02718233346595684</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>95067</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>76851</v>
+        <v>75080</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>117208</v>
+        <v>117233</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2524451577052002</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.20407349588404</v>
+        <v>0.1993703789571826</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3112388902801553</v>
+        <v>0.3113061965836486</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>134</v>
@@ -1480,19 +1480,19 @@
         <v>102230</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>86499</v>
+        <v>87021</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>118709</v>
+        <v>118888</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2699873844658942</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2284405963786532</v>
+        <v>0.2298194913340379</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3135077181759355</v>
+        <v>0.3139806534281049</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>217</v>
@@ -1501,19 +1501,19 @@
         <v>197297</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>172198</v>
+        <v>174344</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>224705</v>
+        <v>224155</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2612402564556235</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2280066450746414</v>
+        <v>0.2308487999973159</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2975309693244166</v>
+        <v>0.2968022571899211</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>259157</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>236409</v>
+        <v>235145</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>278628</v>
+        <v>279735</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6881778736652001</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6277725084874676</v>
+        <v>0.6244170553554338</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7398838597609348</v>
+        <v>0.7428217012640183</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>330</v>
@@ -1551,19 +1551,19 @@
         <v>256576</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>239279</v>
+        <v>238810</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>273312</v>
+        <v>273114</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.6776089589374122</v>
+        <v>0.6776089589374121</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6319276427235787</v>
+        <v>0.630690765421192</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7218093544676768</v>
+        <v>0.7212845339450157</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>543</v>
@@ -1572,19 +1572,19 @@
         <v>515732</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>485584</v>
+        <v>482815</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>541943</v>
+        <v>538656</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.6828789654944327</v>
+        <v>0.6828789654944325</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6429595435613916</v>
+        <v>0.639293114104344</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7175843149272628</v>
+        <v>0.7132324556707017</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>6720</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1890</v>
+        <v>1909</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18579</v>
+        <v>19523</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01784592729493343</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00501757619535053</v>
+        <v>0.005069991388995428</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04933565873070649</v>
+        <v>0.05184364044934929</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1622,19 +1622,19 @@
         <v>10603</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5796</v>
+        <v>5534</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20516</v>
+        <v>21742</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02800314190976659</v>
+        <v>0.02800314190976658</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01530833985410145</v>
+        <v>0.01461391831059733</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05418217149386215</v>
+        <v>0.0574187349817878</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1643,19 +1643,19 @@
         <v>17324</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9479</v>
+        <v>9546</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31964</v>
+        <v>30087</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02293842249439501</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01255062357276396</v>
+        <v>0.01263952925047196</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04232392994505654</v>
+        <v>0.039837441909295</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>15640</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8278</v>
+        <v>9016</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25492</v>
+        <v>26250</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04153104133466624</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02198196167023811</v>
+        <v>0.02394212497135611</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06769354614233478</v>
+        <v>0.06970454043870151</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -1693,19 +1693,19 @@
         <v>9239</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5041</v>
+        <v>4956</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16911</v>
+        <v>17200</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02440051468692702</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01331364411301717</v>
+        <v>0.01308947591732967</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0446607097231916</v>
+        <v>0.04542447939330325</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -1714,19 +1714,19 @@
         <v>24879</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16629</v>
+        <v>16534</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37568</v>
+        <v>37434</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.03294235555554888</v>
+        <v>0.03294235555554887</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02201800219137184</v>
+        <v>0.02189307517623916</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04974401285991198</v>
+        <v>0.04956556787383794</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>200267</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>176904</v>
+        <v>179888</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>222270</v>
+        <v>222686</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4621263792578988</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4082147414274701</v>
+        <v>0.4151006566219258</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5129004461581325</v>
+        <v>0.5138603695478317</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>255</v>
@@ -1839,19 +1839,19 @@
         <v>192923</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>173010</v>
+        <v>172824</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>212454</v>
+        <v>213836</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3944767283821955</v>
+        <v>0.3944767283821956</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3537597187755167</v>
+        <v>0.3533805068478295</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4344131458822192</v>
+        <v>0.4372396952959133</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>455</v>
@@ -1860,19 +1860,19 @@
         <v>393189</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>364808</v>
+        <v>363473</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>423397</v>
+        <v>423254</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4262590357870887</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3954905662595318</v>
+        <v>0.3940428206917914</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4590073918027227</v>
+        <v>0.4588526514893458</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>227557</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>205561</v>
+        <v>204675</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>250193</v>
+        <v>248604</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.525099923138701</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4743445689060742</v>
+        <v>0.4722988440942239</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.577335103379631</v>
+        <v>0.5736676434227026</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>390</v>
@@ -1910,19 +1910,19 @@
         <v>282484</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>264106</v>
+        <v>262353</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>301958</v>
+        <v>302420</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5776059768282241</v>
+        <v>0.577605976828224</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5400284441906892</v>
+        <v>0.5364428907353355</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6174243332363349</v>
+        <v>0.6183699847497011</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>610</v>
@@ -1931,19 +1931,19 @@
         <v>510041</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>478939</v>
+        <v>481205</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>539835</v>
+        <v>539782</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5529382436266979</v>
+        <v>0.5529382436266977</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5192207004695054</v>
+        <v>0.5216770875917426</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5852388502237028</v>
+        <v>0.5851804234832306</v>
       </c>
     </row>
     <row r="21">
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6394</v>
+        <v>5465</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.004104065602643131</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01475378750334827</v>
+        <v>0.0126105729604589</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1981,19 +1981,19 @@
         <v>1452</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4080</v>
+        <v>4155</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002968900686396147</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0008271392252129138</v>
+        <v>0.0008188211417148409</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.008342796727762277</v>
+        <v>0.008495366539358744</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -2002,19 +2002,19 @@
         <v>3231</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1057</v>
+        <v>1252</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>8217</v>
+        <v>7811</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.003502209577963083</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.001145896544610456</v>
+        <v>0.001357020272191487</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.008908060735299268</v>
+        <v>0.008468344601735459</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>3757</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>911</v>
+        <v>937</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8843</v>
+        <v>9396</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008669632000757066</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002101947404080634</v>
+        <v>0.002162149193808453</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02040511734755998</v>
+        <v>0.02168247082315709</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -2052,19 +2052,19 @@
         <v>12201</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7213</v>
+        <v>7454</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19589</v>
+        <v>19689</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02494839410318431</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01474906533187615</v>
+        <v>0.01524069877396784</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04005352424226046</v>
+        <v>0.0402592267739711</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2073,19 +2073,19 @@
         <v>15958</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9998</v>
+        <v>10145</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23563</v>
+        <v>24304</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01730051100825046</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01083914004150429</v>
+        <v>0.01099803127678273</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02554512537015489</v>
+        <v>0.02634804472158819</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>675695</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>633401</v>
+        <v>631417</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>724627</v>
+        <v>719003</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4308528760788562</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4038843194404468</v>
+        <v>0.402618792845761</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4620539146140075</v>
+        <v>0.458467733741571</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>941</v>
@@ -2198,19 +2198,19 @@
         <v>659282</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>623397</v>
+        <v>622325</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>698527</v>
+        <v>691822</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3890461235858537</v>
+        <v>0.3890461235858536</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3678702993686416</v>
+        <v>0.3672374696449187</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4122047429441658</v>
+        <v>0.4082484249624476</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1603</v>
@@ -2219,19 +2219,19 @@
         <v>1334977</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1282451</v>
+        <v>1275935</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1392804</v>
+        <v>1390314</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.409140129790833</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.393042073718016</v>
+        <v>0.3910449772231593</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4268628713353897</v>
+        <v>0.4260995796026884</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>842909</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>794287</v>
+        <v>796792</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>886636</v>
+        <v>886187</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5374754414421726</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5064722963140155</v>
+        <v>0.5080696437638765</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5653577992583348</v>
+        <v>0.5650712553484308</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1350</v>
@@ -2269,19 +2269,19 @@
         <v>975199</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>937654</v>
+        <v>943898</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1010457</v>
+        <v>1014925</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5754707454350823</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.553314955093938</v>
+        <v>0.5569995453793234</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5962765181653179</v>
+        <v>0.5989130598284622</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2102</v>
@@ -2290,19 +2290,19 @@
         <v>1818108</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1760860</v>
+        <v>1761065</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1874406</v>
+        <v>1877167</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5572086746291426</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5396634489093338</v>
+        <v>0.5397263126730812</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5744627637649357</v>
+        <v>0.5753089712029006</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>16129</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8167</v>
+        <v>8285</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30514</v>
+        <v>31648</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01028428504696819</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005207571219003206</v>
+        <v>0.005282985530811943</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01945732675308133</v>
+        <v>0.02018014496755137</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -2340,19 +2340,19 @@
         <v>19575</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12335</v>
+        <v>12950</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>32268</v>
+        <v>31403</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01155144822233513</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007278732520223042</v>
+        <v>0.007641948891996655</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01904136070603986</v>
+        <v>0.01853094985415471</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>39</v>
@@ -2361,19 +2361,19 @@
         <v>35704</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>23844</v>
+        <v>24170</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>52606</v>
+        <v>53010</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01094239865043149</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00730772538854782</v>
+        <v>0.00740770778416193</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01612252200699312</v>
+        <v>0.01624646436220765</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>33541</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>22911</v>
+        <v>23925</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>47986</v>
+        <v>47379</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02138739743200314</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01460916990036885</v>
+        <v>0.01525562204858178</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03059811407277426</v>
+        <v>0.03021109082032805</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>56</v>
@@ -2411,19 +2411,19 @@
         <v>40555</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>30554</v>
+        <v>30516</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>53748</v>
+        <v>54238</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02393168275672912</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01802994238425104</v>
+        <v>0.01800778550526659</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0317171778097487</v>
+        <v>0.03200643812850464</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>90</v>
@@ -2432,19 +2432,19 @@
         <v>74096</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>59943</v>
+        <v>58066</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>92723</v>
+        <v>92806</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.02270879692959297</v>
+        <v>0.02270879692959296</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01837119975296615</v>
+        <v>0.01779602793129704</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02841750501098507</v>
+        <v>0.02844298010347283</v>
       </c>
     </row>
     <row r="28">
